--- a/哥斯拉操作手册.xlsx
+++ b/哥斯拉操作手册.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Project\21_TigerArm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5706C928-8B14-4C00-809D-A897ECC78049}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41D3361D-B854-48F4-B1D0-84AD6C74F15D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{91D4BF78-3021-484B-98E4-1CA543F88EBE}"/>
+    <workbookView xWindow="-23148" yWindow="0" windowWidth="23256" windowHeight="13176" xr2:uid="{91D4BF78-3021-484B-98E4-1CA543F88EBE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="57">
   <si>
     <t>全局按键</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -59,14 +59,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>暂不要</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SilverMineral</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>q</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -252,6 +244,14 @@
   </si>
   <si>
     <t>手动开关泵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SilverMineral，暂时空置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>左键</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -319,7 +319,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -334,6 +334,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -649,10 +652,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4574CD46-F8CF-440C-86B3-5C48015FF266}">
-  <dimension ref="A1:F30"/>
+  <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -668,14 +671,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
+      <c r="A1" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -690,21 +693,21 @@
       <c r="F2" s="2"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
+      <c r="A3" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
@@ -712,57 +715,57 @@
       <c r="F4" s="2"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
+      <c r="A5" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" s="2" t="s">
+      <c r="F7" s="2" t="s">
         <v>26</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
@@ -770,321 +773,355 @@
       <c r="F8" s="2"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
+      <c r="A9" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
+      <c r="A11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>24</v>
+      </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B14" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C12" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D12" s="2" t="s">
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E12" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C13" s="2" t="s">
+      <c r="B16" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D13" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
+      <c r="C16" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
+      <c r="D16" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
+      <c r="A17" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>40</v>
-      </c>
+      <c r="A18" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
+      <c r="A19" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>31</v>
+      <c r="A20" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>37</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>43</v>
-      </c>
+      <c r="A21" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>44</v>
+      <c r="A22" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
+      <c r="A23" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B26" s="5"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C27" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B25" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D25" s="2" t="s">
+      <c r="D27" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E25" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F25" s="2" t="s">
+      <c r="E27" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F27" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B26" s="2" t="s">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B28" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="C28" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="2"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D26" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="2"/>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>53</v>
-      </c>
       <c r="D29" s="2" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
+      <c r="A30" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B30" s="5"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="5"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="A15:F15"/>
-    <mergeCell ref="A19:F19"/>
-    <mergeCell ref="A24:F24"/>
-    <mergeCell ref="A23:F23"/>
-    <mergeCell ref="A28:F28"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A3:F3"/>
     <mergeCell ref="A5:F5"/>
-    <mergeCell ref="A11:F11"/>
+    <mergeCell ref="A13:F13"/>
     <mergeCell ref="A9:F9"/>
+    <mergeCell ref="A17:F17"/>
+    <mergeCell ref="A21:F21"/>
+    <mergeCell ref="A26:F26"/>
+    <mergeCell ref="A25:F25"/>
+    <mergeCell ref="A30:F30"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/哥斯拉操作手册.xlsx
+++ b/哥斯拉操作手册.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Project\21_TigerArm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41D3361D-B854-48F4-B1D0-84AD6C74F15D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F0E015B-D293-4FBB-AE99-187CC034FE16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="0" windowWidth="23256" windowHeight="13176" xr2:uid="{91D4BF78-3021-484B-98E4-1CA543F88EBE}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{91D4BF78-3021-484B-98E4-1CA543F88EBE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="58">
   <si>
     <t>全局按键</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -252,6 +252,10 @@
   </si>
   <si>
     <t>左键</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>抬高</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -276,7 +280,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -286,6 +290,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -319,7 +329,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -337,6 +347,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -655,7 +668,7 @@
   <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -811,8 +824,12 @@
       <c r="D11" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
+      <c r="E11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
@@ -849,10 +866,10 @@
       <c r="D14" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="E14" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="F14" s="6" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1112,16 +1129,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A17:F17"/>
+    <mergeCell ref="A21:F21"/>
+    <mergeCell ref="A26:F26"/>
+    <mergeCell ref="A25:F25"/>
+    <mergeCell ref="A30:F30"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A3:F3"/>
     <mergeCell ref="A5:F5"/>
     <mergeCell ref="A13:F13"/>
     <mergeCell ref="A9:F9"/>
-    <mergeCell ref="A17:F17"/>
-    <mergeCell ref="A21:F21"/>
-    <mergeCell ref="A26:F26"/>
-    <mergeCell ref="A25:F25"/>
-    <mergeCell ref="A30:F30"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
